--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TE_Workspace\AutomationFramework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\AutomationFramework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88413D33-E352-49FD-94B7-FA48D1E999F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6F02C4-2801-443F-B4A8-AF0A7FA2C5E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{1D69EAE2-8359-4C57-9A2C-20AC3A81699A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1D69EAE2-8359-4C57-9A2C-20AC3A81699A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="CreateBGG_Pacakge" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,18 +31,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>Pass@123</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Ravi</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email </t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>StreetAddress</t>
+  </si>
+  <si>
+    <t>ApartmentNo</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zipcode </t>
+  </si>
+  <si>
+    <t>ravi.chandrika@bluegreenvacations.com</t>
+  </si>
+  <si>
+    <t>NYC Street1</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>CardNumber</t>
+  </si>
+  <si>
+    <t>CVV</t>
+  </si>
+  <si>
+    <t>8989221301'</t>
+  </si>
+  <si>
+    <t>Stg_02</t>
+  </si>
+  <si>
+    <t>10022'</t>
+  </si>
+  <si>
+    <t>1234'</t>
+  </si>
+  <si>
+    <t>123'</t>
+  </si>
+  <si>
+    <t>4111111111111111'</t>
   </si>
 </sst>
 </file>
@@ -87,9 +135,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -405,45 +454,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A479E1EF-8848-4984-8B9D-FF97A0BB0E22}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+    <col min="3" max="3" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.90625" customWidth="1"/>
+    <col min="5" max="5" width="17.90625" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" customWidth="1"/>
+    <col min="7" max="7" width="15.08984375" customWidth="1"/>
+    <col min="8" max="8" width="19.08984375" customWidth="1"/>
+    <col min="9" max="9" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{70FF4983-30B4-4692-B8E2-05A25084662B}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{75B7845E-C4C8-462F-988E-AA49FF021206}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010055F98AC465787A459B9B84B0399FD84B" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="967516e40d6020beadb94f9f3c2840a7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e7d18b6-eb12-42c0-a8f2-41aab203f3c0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="889a89459b45488b3b7c0d74fc118730" ns3:_="">
     <xsd:import namespace="3e7d18b6-eb12-42c0-a8f2-41aab203f3c0"/>
@@ -575,7 +683,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -584,13 +692,23 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A445C62-BAC6-4620-A403-19C8718FED1E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3e7d18b6-eb12-42c0-a8f2-41aab203f3c0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02F7077D-07FE-4304-A832-E803D11A0841}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -608,26 +726,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6399A63A-C562-4BDA-913E-B6DEAACA2CD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A445C62-BAC6-4620-A403-19C8718FED1E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3e7d18b6-eb12-42c0-a8f2-41aab203f3c0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\AutomationFramework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6F02C4-2801-443F-B4A8-AF0A7FA2C5E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1852B1C5-910D-496D-AB17-73EEA544CA13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1D69EAE2-8359-4C57-9A2C-20AC3A81699A}"/>
   </bookViews>
@@ -75,22 +75,22 @@
     <t>CVV</t>
   </si>
   <si>
-    <t>8989221301'</t>
-  </si>
-  <si>
-    <t>Stg_02</t>
-  </si>
-  <si>
-    <t>10022'</t>
-  </si>
-  <si>
-    <t>1234'</t>
-  </si>
-  <si>
-    <t>123'</t>
-  </si>
-  <si>
-    <t>4111111111111111'</t>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>10022</t>
+  </si>
+  <si>
+    <t>4111111111111111</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Stg_04</t>
+  </si>
+  <si>
+    <t>8009011301</t>
   </si>
 </sst>
 </file>
@@ -135,10 +135,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -457,7 +459,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -510,31 +512,31 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -542,16 +544,11 @@
     <hyperlink ref="C2" r:id="rId1" xr:uid="{75B7845E-C4C8-462F-988E-AA49FF021206}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010055F98AC465787A459B9B84B0399FD84B" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="967516e40d6020beadb94f9f3c2840a7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e7d18b6-eb12-42c0-a8f2-41aab203f3c0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="889a89459b45488b3b7c0d74fc118730" ns3:_="">
     <xsd:import namespace="3e7d18b6-eb12-42c0-a8f2-41aab203f3c0"/>
@@ -683,6 +680,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -693,22 +696,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A445C62-BAC6-4620-A403-19C8718FED1E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3e7d18b6-eb12-42c0-a8f2-41aab203f3c0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02F7077D-07FE-4304-A832-E803D11A0841}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -726,6 +713,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A445C62-BAC6-4620-A403-19C8718FED1E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3e7d18b6-eb12-42c0-a8f2-41aab203f3c0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6399A63A-C562-4BDA-913E-B6DEAACA2CD4}">
   <ds:schemaRefs>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\AutomationFramework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1852B1C5-910D-496D-AB17-73EEA544CA13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF553D9-A041-46E7-909B-7AFA7106AE16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1D69EAE2-8359-4C57-9A2C-20AC3A81699A}"/>
   </bookViews>
@@ -87,10 +87,10 @@
     <t>123</t>
   </si>
   <si>
-    <t>Stg_04</t>
-  </si>
-  <si>
-    <t>8009011301</t>
+    <t>Stg_06</t>
+  </si>
+  <si>
+    <t>8009000231</t>
   </si>
 </sst>
 </file>
@@ -458,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A479E1EF-8848-4984-8B9D-FF97A0BB0E22}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -549,6 +549,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010055F98AC465787A459B9B84B0399FD84B" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="967516e40d6020beadb94f9f3c2840a7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e7d18b6-eb12-42c0-a8f2-41aab203f3c0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="889a89459b45488b3b7c0d74fc118730" ns3:_="">
     <xsd:import namespace="3e7d18b6-eb12-42c0-a8f2-41aab203f3c0"/>
@@ -680,22 +689,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6399A63A-C562-4BDA-913E-B6DEAACA2CD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02F7077D-07FE-4304-A832-E803D11A0841}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -713,7 +721,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A445C62-BAC6-4620-A403-19C8718FED1E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -727,12 +735,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6399A63A-C562-4BDA-913E-B6DEAACA2CD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\AutomationFramework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF553D9-A041-46E7-909B-7AFA7106AE16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8C7301-6114-43A1-87B4-AD7D8296256D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1D69EAE2-8359-4C57-9A2C-20AC3A81699A}"/>
   </bookViews>
@@ -90,7 +90,7 @@
     <t>Stg_06</t>
   </si>
   <si>
-    <t>8009000231</t>
+    <t>8119220231</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\AutomationFramework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitcode\Bluegreen_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8C7301-6114-43A1-87B4-AD7D8296256D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DBC283-9AD5-4684-B4DB-A96F454FA6C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1D69EAE2-8359-4C57-9A2C-20AC3A81699A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D69EAE2-8359-4C57-9A2C-20AC3A81699A}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateBGG_Pacakge" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
     <t>Stg_06</t>
   </si>
   <si>
-    <t>8119220231</t>
+    <t>8119220232</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -549,12 +549,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -690,15 +687,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6399A63A-C562-4BDA-913E-B6DEAACA2CD4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A445C62-BAC6-4620-A403-19C8718FED1E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3e7d18b6-eb12-42c0-a8f2-41aab203f3c0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -722,17 +730,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A445C62-BAC6-4620-A403-19C8718FED1E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6399A63A-C562-4BDA-913E-B6DEAACA2CD4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3e7d18b6-eb12-42c0-a8f2-41aab203f3c0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>